--- a/data/america-do-sul/copa-sul-americana/2021.xlsx
+++ b/data/america-do-sul/copa-sul-americana/2021.xlsx
@@ -615,9 +615,19 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Valenzuela J. (Ven)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Ligga Arena (Curitiba)</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>42372</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
@@ -741,19 +751,9 @@
       <c r="G5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Haro Sueldo D. M. (Per)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Campeón del Siglo (Montevidéu)</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>40000</v>
-      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
@@ -1246,14 +1246,8 @@
         <v>3</v>
       </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Nacional de Lima (Lima)</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>43086</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
@@ -1425,19 +1419,9 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Fedorczuk D. (Uru)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Estadio Gigante de Arroyito (Rosário)</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>46955</v>
-      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
@@ -1551,16 +1535,8 @@
       <c r="G18" t="n">
         <v>1</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Matonte Cabrera A. M. (Uru)</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Estadio Defensores del Chaco (Assunção)</t>
-        </is>
-      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>44164</v>
       </c>
@@ -1620,8 +1596,14 @@
         <v>1</v>
       </c>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Estádio Nabi Abi Chedid (Bragança Paulista)</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>15010</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
@@ -1677,19 +1659,9 @@
       <c r="G20" t="n">
         <v>1</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Raphael Claus (Bra)</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Estádio Júlio Humberto Grondona (Avellaneda)</t>
-        </is>
-      </c>
-      <c r="J20" t="n">
-        <v>10000</v>
-      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
@@ -1745,19 +1717,9 @@
       <c r="G21" t="n">
         <v>1</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Herrera D. (Arg)</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Ligga Arena (Curitiba)</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>42372</v>
-      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
@@ -1813,9 +1775,19 @@
       <c r="G22" t="n">
         <v>2</v>
       </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Argote J. (Ven)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Arena do Grêmio (Porto Alegre)</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>60540</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
@@ -1873,9 +1845,7 @@
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>38755</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
@@ -1933,9 +1903,7 @@
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>34000</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
@@ -1991,9 +1959,19 @@
       <c r="G25" t="n">
         <v>0</v>
       </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Roldan W. (Col)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Vila Belmiro (Santos)</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>16068</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
@@ -2175,8 +2153,16 @@
       <c r="G28" t="n">
         <v>1</v>
       </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Guerrero G. (Ecu)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Nacional de Lima (Lima)</t>
+        </is>
+      </c>
       <c r="J28" t="n">
         <v>43086</v>
       </c>
@@ -2237,7 +2223,9 @@
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>30297</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
@@ -2361,19 +2349,9 @@
       <c r="G31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Merlos A. (Arg)</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Ligga Arena (Curitiba)</t>
-        </is>
-      </c>
-      <c r="J31" t="n">
-        <v>42372</v>
-      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
@@ -2565,8 +2543,16 @@
       <c r="G34" t="n">
         <v>0</v>
       </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Vargas G. (Bol)</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Estadio Monumental (Lima)</t>
+        </is>
+      </c>
       <c r="J34" t="n">
         <v>80093</v>
       </c>
@@ -2625,19 +2611,9 @@
       <c r="G35" t="n">
         <v>1</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Ospina J. (Col)</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Estádio Júlio Humberto Grondona (Avellaneda)</t>
-        </is>
-      </c>
-      <c r="J35" t="n">
-        <v>10000</v>
-      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
@@ -2761,19 +2737,9 @@
       <c r="G37" t="n">
         <v>0</v>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Argote J. (Ven)</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Neo Química Arena (São Paulo)</t>
-        </is>
-      </c>
-      <c r="J37" t="n">
-        <v>49205</v>
-      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
@@ -2829,9 +2795,19 @@
       <c r="G38" t="n">
         <v>3</v>
       </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Flávio Rodrigues de Souza (Bra)</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Estadio Sausalito (Viña del Mar)</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>23423</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
@@ -2955,19 +2931,9 @@
       <c r="G40" t="n">
         <v>0</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Matonte Cabrera A. M. (Uru)</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Estádio Florencio Sola (Buenos Aires)</t>
-        </is>
-      </c>
-      <c r="J40" t="n">
-        <v>34902</v>
-      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
@@ -3343,7 +3309,11 @@
       <c r="G46" t="n">
         <v>2</v>
       </c>
-      <c r="H46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Ferreyra C. (Uru)</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr">
         <is>
           <t>Estádio El Teniente (Rancagua)</t>
@@ -3407,16 +3377,8 @@
       <c r="G47" t="n">
         <v>6</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>de Vivar M. D. (Par)</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Estádio Olímpico de la UCV (Caracas)</t>
-        </is>
-      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>24264</v>
       </c>
@@ -3533,11 +3495,7 @@
       <c r="G49" t="n">
         <v>4</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Menendez A. (Per)</t>
-        </is>
-      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
           <t>Estádio Gilberto Parada (Montero)</t>
@@ -3601,7 +3559,11 @@
       <c r="G50" t="n">
         <v>1</v>
       </c>
-      <c r="H50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Tejera G. (Uru)</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr">
         <is>
           <t>Estádio Cidade de Lanús (Néstor Díaz Pérez) (Lanús)</t>
@@ -3791,9 +3753,19 @@
       <c r="G53" t="n">
         <v>1</v>
       </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Fedorczuk D. (Uru)</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Estádio Marcelo Bielsa (Rosário)</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>42000</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
@@ -3849,16 +3821,8 @@
       <c r="G54" t="n">
         <v>0</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Matonte Cabrera A. M. (Uru)</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Ligga Arena (Curitiba)</t>
-        </is>
-      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>42372</v>
       </c>
@@ -3917,19 +3881,9 @@
       <c r="G55" t="n">
         <v>0</v>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Aleman C. (Bol)</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Estádio Gonzalo Pozo Ripalda (Quito)</t>
-        </is>
-      </c>
-      <c r="J55" t="n">
-        <v>18799</v>
-      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
@@ -3985,11 +3939,7 @@
       <c r="G56" t="n">
         <v>0</v>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Ferreyra C. (Uru)</t>
-        </is>
-      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
           <t>Estádio Florencio Sola (Buenos Aires)</t>
@@ -4121,19 +4071,9 @@
       <c r="G58" t="n">
         <v>0</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Vargas G. (Bol)</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Estádio George Capwell (Guayaquil)</t>
-        </is>
-      </c>
-      <c r="J58" t="n">
-        <v>40020</v>
-      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
@@ -4189,9 +4129,19 @@
       <c r="G59" t="n">
         <v>2</v>
       </c>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Betancur Gutierrez C. A. (Col)</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Estádio Félix Capriles (Cochabamba)</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>35000</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
@@ -4247,11 +4197,7 @@
       <c r="G60" t="n">
         <v>1</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Gonzalez L. (Uru)</t>
-        </is>
-      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
           <t>Estadio Mario Alberto Kempes (Córdoba)</t>
@@ -4315,19 +4261,9 @@
       <c r="G61" t="n">
         <v>0</v>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Rojas A. (Col)</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Estadio Libertadores de América (Avellaneda)</t>
-        </is>
-      </c>
-      <c r="J61" t="n">
-        <v>48069</v>
-      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
@@ -4383,19 +4319,9 @@
       <c r="G62" t="n">
         <v>1</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Echenique F. (Arg)</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Estadio Defensores del Chaco (Assunção)</t>
-        </is>
-      </c>
-      <c r="J62" t="n">
-        <v>44164</v>
-      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
@@ -4451,19 +4377,9 @@
       <c r="G63" t="n">
         <v>1</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Echenique F. (Arg)</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Estádio Gonzalo Pozo Ripalda (Quito)</t>
-        </is>
-      </c>
-      <c r="J63" t="n">
-        <v>18799</v>
-      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
@@ -4519,19 +4435,9 @@
       <c r="G64" t="n">
         <v>0</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Tejera G. (Uru)</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Estadio Tigo La Huerta (Assunção)</t>
-        </is>
-      </c>
-      <c r="J64" t="n">
-        <v>10100</v>
-      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
@@ -4859,8 +4765,16 @@
       <c r="G69" t="n">
         <v>1</v>
       </c>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Soto J. (Ven)</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Estádio Gilberto Parada (Montero)</t>
+        </is>
+      </c>
       <c r="J69" t="n">
         <v>13000</v>
       </c>
@@ -4987,19 +4901,9 @@
       <c r="G71" t="n">
         <v>2</v>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Ortega K. (Per)</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Estadio Hernando Siles (La Paz)</t>
-        </is>
-      </c>
-      <c r="J71" t="n">
-        <v>41143</v>
-      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
@@ -5055,8 +4959,16 @@
       <c r="G72" t="n">
         <v>2</v>
       </c>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>B. Arleu (Bra)</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Estádio Pedro Bidegain (Buenos Aires)</t>
+        </is>
+      </c>
       <c r="J72" t="n">
         <v>47964</v>
       </c>
@@ -5115,9 +5027,19 @@
       <c r="G73" t="n">
         <v>2</v>
       </c>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Flávio Rodrigues de Souza (Bra)</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Luis Alfonso Giagni (Assunção)</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>11000</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
@@ -5241,19 +5163,9 @@
       <c r="G75" t="n">
         <v>1</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Mendez J. (Par)</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Estádio Parque Alfredo Víctor Viera (Montevidéu)</t>
-        </is>
-      </c>
-      <c r="J75" t="n">
-        <v>7527</v>
-      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
@@ -5309,19 +5221,9 @@
       <c r="G76" t="n">
         <v>0</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Matonte Cabrera A. M. (Uru)</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>Estadio Mario Alberto Kempes (Córdoba)</t>
-        </is>
-      </c>
-      <c r="J76" t="n">
-        <v>57000</v>
-      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
@@ -5377,19 +5279,9 @@
       <c r="G77" t="n">
         <v>1</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Lopez D. (Par)</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Estádio Olímpico de la UCV (Caracas)</t>
-        </is>
-      </c>
-      <c r="J77" t="n">
-        <v>24264</v>
-      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
@@ -5503,19 +5395,9 @@
       <c r="G79" t="n">
         <v>1</v>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Aquino E. (Par)</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>Estadio Monumental (Lima)</t>
-        </is>
-      </c>
-      <c r="J79" t="n">
-        <v>80093</v>
-      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
@@ -5639,8 +5521,16 @@
       <c r="G81" t="n">
         <v>3</v>
       </c>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Ospina J. (Col)</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Nacional de Lima (Lima)</t>
+        </is>
+      </c>
       <c r="J81" t="n">
         <v>43086</v>
       </c>
@@ -5699,19 +5589,9 @@
       <c r="G82" t="n">
         <v>0</v>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Orbe C. (Ecu)</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Campeón del Siglo (Montevidéu)</t>
-        </is>
-      </c>
-      <c r="J82" t="n">
-        <v>40000</v>
-      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
@@ -5767,19 +5647,9 @@
       <c r="G83" t="n">
         <v>1</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Wilton Sampaio (Bra)</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>Estádio Pedro Bidegain (Buenos Aires)</t>
-        </is>
-      </c>
-      <c r="J83" t="n">
-        <v>47964</v>
-      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
@@ -5835,19 +5705,9 @@
       <c r="G84" t="n">
         <v>0</v>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Hermosilla Baeza A. (Chi)</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>Estádio Júlio Humberto Grondona (Avellaneda)</t>
-        </is>
-      </c>
-      <c r="J84" t="n">
-        <v>10000</v>
-      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
@@ -5971,19 +5831,9 @@
       <c r="G86" t="n">
         <v>2</v>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Vargas G. (Bol)</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>Estadio Defensores del Chaco (Assunção)</t>
-        </is>
-      </c>
-      <c r="J86" t="n">
-        <v>44164</v>
-      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
@@ -6039,8 +5889,16 @@
       <c r="G87" t="n">
         <v>1</v>
       </c>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Gamboa N. (Chi)</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Estádio Nabi Abi Chedid (Bragança Paulista)</t>
+        </is>
+      </c>
       <c r="J87" t="n">
         <v>15010</v>
       </c>
@@ -6163,16 +6021,8 @@
       <c r="G89" t="n">
         <v>1</v>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Raphael Claus (Bra)</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>Estadio Sausalito (Viña del Mar)</t>
-        </is>
-      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
         <v>23423</v>
       </c>
@@ -6300,14 +6150,8 @@
         <v>1</v>
       </c>
       <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>Estádio El Teniente (Rancagua)</t>
-        </is>
-      </c>
-      <c r="J91" t="n">
-        <v>14087</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
@@ -6363,9 +6207,19 @@
       <c r="G92" t="n">
         <v>0</v>
       </c>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Betancur Gutierrez C. A. (Col)</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Estádio Monumental Virgen de Chapi (Arequipa)</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>60370</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
@@ -6421,9 +6275,19 @@
       <c r="G93" t="n">
         <v>2</v>
       </c>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Tobar Vargas R. (Chi)</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Casa de Apostas Arena Fonte Nova (Salvador)</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>48902</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
@@ -6479,9 +6343,19 @@
       <c r="G94" t="n">
         <v>2</v>
       </c>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Espinoza F. (Arg)</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Estádio Olímpico de la UCV (Caracas)</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>24264</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
@@ -6741,19 +6615,9 @@
       <c r="G98" t="n">
         <v>1</v>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Menendez A. (Per)</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>Estádio El Teniente (Rancagua)</t>
-        </is>
-      </c>
-      <c r="J98" t="n">
-        <v>14087</v>
-      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
@@ -6809,16 +6673,8 @@
       <c r="G99" t="n">
         <v>2</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Tello F. (Arg)</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>Neo Química Arena (São Paulo)</t>
-        </is>
-      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
         <v>49205</v>
       </c>
@@ -6878,14 +6734,8 @@
         <v>2</v>
       </c>
       <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>Estádio Huancayo (Huancayo)</t>
-        </is>
-      </c>
-      <c r="J100" t="n">
-        <v>20000</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
@@ -6941,11 +6791,7 @@
       <c r="G101" t="n">
         <v>0</v>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Rojas A. (Col)</t>
-        </is>
-      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
           <t>Estádio Félix Capriles (Cochabamba)</t>
@@ -7077,19 +6923,9 @@
       <c r="G103" t="n">
         <v>0</v>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Ortega C. (Col)</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>Estádio Monumental Virgen de Chapi (Arequipa)</t>
-        </is>
-      </c>
-      <c r="J103" t="n">
-        <v>60370</v>
-      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
@@ -7145,9 +6981,19 @@
       <c r="G104" t="n">
         <v>0</v>
       </c>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Ferreyra C. (Uru)</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Estadio Gigante de Arroyito (Rosário)</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>46955</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
@@ -7203,9 +7049,19 @@
       <c r="G105" t="n">
         <v>1</v>
       </c>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Herrera A. (Ven)</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Estádio Manuel Murillo Toro (Ibagué)</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>28100</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
@@ -7262,8 +7118,14 @@
         <v>0</v>
       </c>
       <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (Curitiba)</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>42372</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
@@ -7319,19 +7181,9 @@
       <c r="G107" t="n">
         <v>1</v>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Ortega K. (Per)</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>Estadio Libertadores de América (Avellaneda)</t>
-        </is>
-      </c>
-      <c r="J107" t="n">
-        <v>48069</v>
-      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
@@ -7445,19 +7297,9 @@
       <c r="G109" t="n">
         <v>0</v>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Orosco R. (Bol)</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>Estadio Sausalito (Viña del Mar)</t>
-        </is>
-      </c>
-      <c r="J109" t="n">
-        <v>23423</v>
-      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
@@ -7513,9 +7355,19 @@
       <c r="G110" t="n">
         <v>0</v>
       </c>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Garay C. (Chi)</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Casa de Apostas Arena Fonte Nova (Salvador)</t>
+        </is>
+      </c>
+      <c r="J110" t="n">
+        <v>48902</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
@@ -7629,9 +7481,19 @@
       <c r="G112" t="n">
         <v>1</v>
       </c>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Cajas A. (Ecu)</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Campeón del Siglo (Montevidéu)</t>
+        </is>
+      </c>
+      <c r="J112" t="n">
+        <v>40000</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
@@ -7687,9 +7549,19 @@
       <c r="G113" t="n">
         <v>0</v>
       </c>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Herrera D. (Arg)</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Estadio River Plate (Assunção)</t>
+        </is>
+      </c>
+      <c r="J113" t="n">
+        <v>6500</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
@@ -7861,19 +7733,9 @@
       <c r="G116" t="n">
         <v>1</v>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Aquino E. (Par)</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>Arena do Grêmio (Porto Alegre)</t>
-        </is>
-      </c>
-      <c r="J116" t="n">
-        <v>60540</v>
-      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
@@ -7929,7 +7791,11 @@
       <c r="G117" t="n">
         <v>1</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Fedorczuk D. (Uru)</t>
+        </is>
+      </c>
       <c r="I117" t="inlineStr">
         <is>
           <t>Estádio Nabi Abi Chedid (Bragança Paulista)</t>
@@ -7993,9 +7859,19 @@
       <c r="G118" t="n">
         <v>2</v>
       </c>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Ortega K. (Per)</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Estadio Mario Alberto Kempes (Córdoba)</t>
+        </is>
+      </c>
+      <c r="J118" t="n">
+        <v>57000</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
@@ -8051,19 +7927,9 @@
       <c r="G119" t="n">
         <v>3</v>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (Per)</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>Estádio Gilberto Parada (Montero)</t>
-        </is>
-      </c>
-      <c r="J119" t="n">
-        <v>13000</v>
-      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
@@ -8119,19 +7985,9 @@
       <c r="G120" t="n">
         <v>1</v>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Quiroz L. (Ecu)</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>Estadio Centenario (Montevidéu)</t>
-        </is>
-      </c>
-      <c r="J120" t="n">
-        <v>60235</v>
-      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
@@ -8187,9 +8043,19 @@
       <c r="G121" t="n">
         <v>1</v>
       </c>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Gamboa N. (Chi)</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Castelão (Fortaleza)</t>
+        </is>
+      </c>
+      <c r="J121" t="n">
+        <v>60326</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
@@ -8245,9 +8111,19 @@
       <c r="G122" t="n">
         <v>1</v>
       </c>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Betancur Gutierrez C. A. (Col)</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Estádio Pedro Bidegain (Buenos Aires)</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
+        <v>47964</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
@@ -8503,9 +8379,19 @@
       <c r="G126" t="n">
         <v>3</v>
       </c>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Herrera C. (Col)</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Estádio Olímpico de la UCV (Caracas)</t>
+        </is>
+      </c>
+      <c r="J126" t="n">
+        <v>24264</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
@@ -8562,7 +8448,11 @@
         <v>2</v>
       </c>
       <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Parque Capurro (Montevidéu)</t>
+        </is>
+      </c>
       <c r="J127" t="n">
         <v>10000</v>
       </c>
@@ -8689,9 +8579,19 @@
       <c r="G129" t="n">
         <v>2</v>
       </c>
-      <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Betancur Gutierrez C. A. (Col)</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Estadio Departamental Libertad (Pasto)</t>
+        </is>
+      </c>
+      <c r="J129" t="n">
+        <v>20000</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
@@ -8815,9 +8715,19 @@
       <c r="G131" t="n">
         <v>1</v>
       </c>
-      <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Hermosilla Baeza A. (Chi)</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Estádio San Carlos de Apoquindo (Santiago)</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>14768</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
@@ -8941,8 +8851,16 @@
       <c r="G133" t="n">
         <v>1</v>
       </c>
-      <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr"/>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Argote J. (Ven)</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Estádio Polideportivo Misael Delgado (Valencia)</t>
+        </is>
+      </c>
       <c r="J133" t="n">
         <v>10400</v>
       </c>
@@ -9001,9 +8919,19 @@
       <c r="G134" t="n">
         <v>2</v>
       </c>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>de Vivar M. D. (Par)</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Estadio Defensores del Chaco (Assunção)</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
+        <v>44164</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
@@ -9059,9 +8987,19 @@
       <c r="G135" t="n">
         <v>0</v>
       </c>
-      <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Haro D. (Per)</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Nacional de Lima (Lima)</t>
+        </is>
+      </c>
+      <c r="J135" t="n">
+        <v>43086</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
@@ -9117,9 +9055,19 @@
       <c r="G136" t="n">
         <v>2</v>
       </c>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Garcia J. (Bol)</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Estádio Félix Capriles (Cochabamba)</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>35000</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
@@ -9505,8 +9453,16 @@
       <c r="G142" t="n">
         <v>0</v>
       </c>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr"/>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Maza P. (Chi)</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Estadio Huachipato-CAP Acero (Talcahuano)</t>
+        </is>
+      </c>
       <c r="J142" t="n">
         <v>10500</v>
       </c>
@@ -9565,19 +9521,9 @@
       <c r="G143" t="n">
         <v>0</v>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>Congo F. (Ecu)</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>Estádio George Capwell (Guayaquil)</t>
-        </is>
-      </c>
-      <c r="J143" t="n">
-        <v>40020</v>
-      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
@@ -9705,9 +9651,19 @@
       <c r="G145" t="n">
         <v>2</v>
       </c>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Ordonez E. (Per)</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Estadio Monumental (Lima)</t>
+        </is>
+      </c>
+      <c r="J145" t="n">
+        <v>80093</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
@@ -9763,19 +9719,9 @@
       <c r="G146" t="n">
         <v>0</v>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>Gonzalez F. (Chi)</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>Estádio El Cobre de El Salvador (El Salvador)</t>
-        </is>
-      </c>
-      <c r="J146" t="n">
-        <v>12000</v>
-      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
@@ -10307,19 +10253,9 @@
       <c r="G154" t="n">
         <v>1</v>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Yrusta L. (Bol)</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>Estádio Gilberto Parada (Montero)</t>
-        </is>
-      </c>
-      <c r="J154" t="n">
-        <v>13000</v>
-      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
@@ -10511,19 +10447,9 @@
       <c r="G157" t="n">
         <v>0</v>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>de Vivar M. D. (Par)</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>Estadio Luis Alberto Salinas Tanasio (Itauguá)</t>
-        </is>
-      </c>
-      <c r="J157" t="n">
-        <v>10000</v>
-      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
@@ -10579,19 +10505,9 @@
       <c r="G158" t="n">
         <v>2</v>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>Aragon A. (Ecu)</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>Estádio Bellavista (Ambato)</t>
-        </is>
-      </c>
-      <c r="J158" t="n">
-        <v>16467</v>
-      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
